--- a/Python/json-to-xlsx/Example.xlsx
+++ b/Python/json-to-xlsx/Example.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Back to the Future</t>
+          <t>De volta para o futuro</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,14 +471,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Science fiction</t>
+          <t>Ficção Científica</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ferris Bueller's Day Off</t>
+          <t>Vivendo a vida adoidado</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Comédia</t>
         </is>
       </c>
     </row>
